--- a/File Names.xlsx
+++ b/File Names.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="328">
   <si>
     <t>title</t>
   </si>
@@ -854,6 +854,150 @@
   </si>
   <si>
     <t>N_Santiam_at_Niagara_(m3_s)_UrbExpand_Run0.csv</t>
+  </si>
+  <si>
+    <t>Thomas_at_Crabtree_(m3_s)_Ref_Run0.csv</t>
+  </si>
+  <si>
+    <t>Thomas_at_Crabtree_(m3_s)_LowClim_Run0.csv</t>
+  </si>
+  <si>
+    <t>Thomas_at_Crabtree_(m3_s)_HighClim_Run0.csv</t>
+  </si>
+  <si>
+    <t>Thomas_at_Crabtree_(m3_s)_FireSuppress_Run0.csv</t>
+  </si>
+  <si>
+    <t>Thomas_at_Crabtree_(m3_s)_HighPop_Run0.csv</t>
+  </si>
+  <si>
+    <t>Thomas_at_Crabtree_(m3_s)_UrbExpand_Run0.csv</t>
+  </si>
+  <si>
+    <t>Silver_at_Silverton_(m3_s)_Ref_Run0.csv</t>
+  </si>
+  <si>
+    <t>Silver_at_Silverton_(m3_s)_LowClim_Run0.csv</t>
+  </si>
+  <si>
+    <t>Silver_at_Silverton_(m3_s)_HighClim_Run0.csv</t>
+  </si>
+  <si>
+    <t>Silver_at_Silverton_(m3_s)_FireSuppress_Run0.csv</t>
+  </si>
+  <si>
+    <t>Silver_at_Silverton_(m3_s)_HighPop_Run0.csv</t>
+  </si>
+  <si>
+    <t>Silver_at_Silverton_(m3_s)_UrbExpand_Run0.csv</t>
+  </si>
+  <si>
+    <t>Butte_Cr._at_Monitor_(m3_s)_Ref_Run0.csv</t>
+  </si>
+  <si>
+    <t>Butte_Cr._at_Monitor_(m3_s)_LowClim_Run0.csv</t>
+  </si>
+  <si>
+    <t>Butte_Cr._at_Monitor_(m3_s)_HighClim_Run0.csv</t>
+  </si>
+  <si>
+    <t>Butte_Cr._at_Monitor_(m3_s)_FireSuppress_Run0.csv</t>
+  </si>
+  <si>
+    <t>Butte_Cr._at_Monitor_(m3_s)_HighPop_Run0.csv</t>
+  </si>
+  <si>
+    <t>Butte_Cr._at_Monitor_(m3_s)_UrbExpand_Run0.csv</t>
+  </si>
+  <si>
+    <t>Tualatin_at_West_Linn_(m3_s)_Ref_Run0.csv</t>
+  </si>
+  <si>
+    <t>Tualatin_at_West_Linn_(m3_s)_LowClim_Run0.csv</t>
+  </si>
+  <si>
+    <t>Tualatin_at_West_Linn_(m3_s)_HighClim_Run0.csv</t>
+  </si>
+  <si>
+    <t>Tualatin_at_West_Linn_(m3_s)_FireSuppress_Run0.csv</t>
+  </si>
+  <si>
+    <t>Tualatin_at_West_Linn_(m3_s)_HighPop_Run0.csv</t>
+  </si>
+  <si>
+    <t>Tualatin_at_West_Linn_(m3_s)_UrbExpand_Run0.csv</t>
+  </si>
+  <si>
+    <t>SF_Mckenzie_at_Rainbow_(m3_s)_LowClim_Run0.csv</t>
+  </si>
+  <si>
+    <t>SF_Mckenzie_at_Rainbow_(m3_s)_Ref_Run0.csv</t>
+  </si>
+  <si>
+    <t>SF_Mckenzie_at_Rainbow_(m3_s)_HighClim_Run0.csv</t>
+  </si>
+  <si>
+    <t>SF_Mckenzie_at_Rainbow_(m3_s)_FireSuppress_Run0.csv</t>
+  </si>
+  <si>
+    <t>SF_Mckenzie_at_Rainbow_(m3_s)_HighPop_Run0.csv</t>
+  </si>
+  <si>
+    <t>SF_Mckenzie_at_Rainbow_(m3_s)_UrbExpand_Run0.csv</t>
+  </si>
+  <si>
+    <t>Mohawk_Creek_(m3_s)_Ref_Run0.csv</t>
+  </si>
+  <si>
+    <t>Mohawk_Creek_(m3_s)_LowClim_Run0.csv</t>
+  </si>
+  <si>
+    <t>Mohawk_Creek_(m3_s)_HighClim_Run0.csv</t>
+  </si>
+  <si>
+    <t>Mohawk_Creek_(m3_s)_FireSuppress_Run0.csv</t>
+  </si>
+  <si>
+    <t>Mohawk_Creek_(m3_s)_HighPop_Run0.csv</t>
+  </si>
+  <si>
+    <t>Mohawk_Creek_(m3_s)_UrbExpand_Run0.csv</t>
+  </si>
+  <si>
+    <t>Willamette_at_Harrisburg_(m3_s)_Ref_Run0.csv</t>
+  </si>
+  <si>
+    <t>Willamette_at_Harrisburg_(m3_s)_LowClim_Run0.csv</t>
+  </si>
+  <si>
+    <t>Willamette_at_Harrisburg_(m3_s)_HighClim_Run0.csv</t>
+  </si>
+  <si>
+    <t>Willamette_at_Harrisburg_(m3_s)_FireSuppress_Run0.csv</t>
+  </si>
+  <si>
+    <t>Willamette_at_Harrisburg_(m3_s)_HighPop_Run0.csv</t>
+  </si>
+  <si>
+    <t>Willamette_at_Harrisburg_(m3_s)_UrbExpand_Run0.csv</t>
+  </si>
+  <si>
+    <t>Willamette_at_Albany_(m3_s)_Ref_Run0.csv</t>
+  </si>
+  <si>
+    <t>Willamette_at_Albany_(m3_s)_LowClim_Run0.csv</t>
+  </si>
+  <si>
+    <t>Willamette_at_Albany_(m3_s)_HighClim_Run0.csv</t>
+  </si>
+  <si>
+    <t>Willamette_at_Albany_(m3_s)_FireSuppress_Run0.csv</t>
+  </si>
+  <si>
+    <t>Willamette_at_Albany_(m3_s)_HighPop_Run0.csv</t>
+  </si>
+  <si>
+    <t>Willamette_at_Albany_(m3_s)_UrbExpand_Run0.csv</t>
   </si>
 </sst>
 </file>
@@ -1195,9 +1339,9 @@
   <dimension ref="A1:G64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
+      <selection pane="bottomLeft" activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1738,40 +1882,184 @@
       <c r="A24" t="s">
         <v>23</v>
       </c>
+      <c r="B24" t="s">
+        <v>280</v>
+      </c>
+      <c r="C24" t="s">
+        <v>281</v>
+      </c>
+      <c r="D24" t="s">
+        <v>282</v>
+      </c>
+      <c r="E24" t="s">
+        <v>283</v>
+      </c>
+      <c r="F24" t="s">
+        <v>284</v>
+      </c>
+      <c r="G24" t="s">
+        <v>285</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
+      <c r="B25" t="s">
+        <v>286</v>
+      </c>
+      <c r="C25" t="s">
+        <v>287</v>
+      </c>
+      <c r="D25" t="s">
+        <v>288</v>
+      </c>
+      <c r="E25" t="s">
+        <v>289</v>
+      </c>
+      <c r="F25" t="s">
+        <v>290</v>
+      </c>
+      <c r="G25" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
+      <c r="B26" t="s">
+        <v>292</v>
+      </c>
+      <c r="C26" t="s">
+        <v>293</v>
+      </c>
+      <c r="D26" t="s">
+        <v>294</v>
+      </c>
+      <c r="E26" t="s">
+        <v>295</v>
+      </c>
+      <c r="F26" t="s">
+        <v>296</v>
+      </c>
+      <c r="G26" t="s">
+        <v>297</v>
+      </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
+      <c r="B27" t="s">
+        <v>298</v>
+      </c>
+      <c r="C27" t="s">
+        <v>299</v>
+      </c>
+      <c r="D27" t="s">
+        <v>300</v>
+      </c>
+      <c r="E27" t="s">
+        <v>301</v>
+      </c>
+      <c r="F27" t="s">
+        <v>302</v>
+      </c>
+      <c r="G27" t="s">
+        <v>303</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
+      <c r="B28" t="s">
+        <v>305</v>
+      </c>
+      <c r="C28" t="s">
+        <v>304</v>
+      </c>
+      <c r="D28" t="s">
+        <v>306</v>
+      </c>
+      <c r="E28" t="s">
+        <v>307</v>
+      </c>
+      <c r="F28" t="s">
+        <v>308</v>
+      </c>
+      <c r="G28" t="s">
+        <v>309</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
+      <c r="B29" t="s">
+        <v>310</v>
+      </c>
+      <c r="C29" t="s">
+        <v>311</v>
+      </c>
+      <c r="D29" t="s">
+        <v>312</v>
+      </c>
+      <c r="E29" t="s">
+        <v>313</v>
+      </c>
+      <c r="F29" t="s">
+        <v>314</v>
+      </c>
+      <c r="G29" t="s">
+        <v>315</v>
+      </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>29</v>
       </c>
+      <c r="B30" t="s">
+        <v>316</v>
+      </c>
+      <c r="C30" t="s">
+        <v>317</v>
+      </c>
+      <c r="D30" t="s">
+        <v>318</v>
+      </c>
+      <c r="E30" t="s">
+        <v>319</v>
+      </c>
+      <c r="F30" t="s">
+        <v>320</v>
+      </c>
+      <c r="G30" t="s">
+        <v>321</v>
+      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>322</v>
+      </c>
+      <c r="C31" t="s">
+        <v>323</v>
+      </c>
+      <c r="D31" t="s">
+        <v>324</v>
+      </c>
+      <c r="E31" t="s">
+        <v>325</v>
+      </c>
+      <c r="F31" t="s">
+        <v>326</v>
+      </c>
+      <c r="G31" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
